--- a/2. Datos/INM/Total_De_Eventos/31.2011_Sorted.xlsx
+++ b/2. Datos/INM/Total_De_Eventos/31.2011_Sorted.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pablouriarte/Documents/1. Expediente Tec de Monterrey/1.Tesis/Mapa_Migracion_Irregular_Mexico/2. Datos/INM/Total_De_Eventos/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8494EEF1-3928-9D4B-806B-574E636D6BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28800" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -163,8 +169,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,13 +233,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -271,7 +285,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -305,6 +319,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -339,9 +354,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -514,14 +530,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O760"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A754" workbookViewId="0">
+      <selection activeCell="P793" sqref="A761:P793"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +586,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -615,7 +633,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -662,7 +680,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>17</v>
       </c>
@@ -709,7 +727,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>18</v>
       </c>
@@ -756,7 +774,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -803,7 +821,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -850,7 +868,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -897,7 +915,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -944,7 +962,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>23</v>
       </c>
@@ -991,7 +1009,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1038,7 +1056,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>25</v>
       </c>
@@ -1085,7 +1103,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -1132,7 +1150,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>27</v>
       </c>
@@ -1179,7 +1197,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -1226,7 +1244,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>29</v>
       </c>
@@ -1273,7 +1291,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>30</v>
       </c>
@@ -1320,7 +1338,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1367,7 +1385,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1414,7 +1432,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1461,7 +1479,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -1508,7 +1526,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>35</v>
       </c>
@@ -1555,7 +1573,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1602,7 +1620,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1649,7 +1667,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1696,7 +1714,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1743,7 +1761,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1790,7 +1808,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>41</v>
       </c>
@@ -1837,7 +1855,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -1884,7 +1902,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>43</v>
       </c>
@@ -1931,7 +1949,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>44</v>
       </c>
@@ -1978,7 +1996,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -2025,7 +2043,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>46</v>
       </c>
@@ -2072,7 +2090,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>47</v>
       </c>
@@ -2119,7 +2137,7 @@
         <v>2001</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -2166,7 +2184,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -2213,7 +2231,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>17</v>
       </c>
@@ -2260,7 +2278,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>18</v>
       </c>
@@ -2307,7 +2325,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>19</v>
       </c>
@@ -2354,7 +2372,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -2401,7 +2419,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -2448,7 +2466,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -2495,7 +2513,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>23</v>
       </c>
@@ -2542,7 +2560,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>24</v>
       </c>
@@ -2589,7 +2607,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>25</v>
       </c>
@@ -2636,7 +2654,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>26</v>
       </c>
@@ -2683,7 +2701,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>27</v>
       </c>
@@ -2730,7 +2748,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>28</v>
       </c>
@@ -2777,7 +2795,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>29</v>
       </c>
@@ -2824,7 +2842,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>30</v>
       </c>
@@ -2871,7 +2889,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>31</v>
       </c>
@@ -2918,7 +2936,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>32</v>
       </c>
@@ -2965,7 +2983,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>33</v>
       </c>
@@ -3012,7 +3030,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>34</v>
       </c>
@@ -3059,7 +3077,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>35</v>
       </c>
@@ -3106,7 +3124,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>36</v>
       </c>
@@ -3153,7 +3171,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>37</v>
       </c>
@@ -3200,7 +3218,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>38</v>
       </c>
@@ -3247,7 +3265,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>39</v>
       </c>
@@ -3294,7 +3312,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>40</v>
       </c>
@@ -3341,7 +3359,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>41</v>
       </c>
@@ -3388,7 +3406,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -3435,7 +3453,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>43</v>
       </c>
@@ -3482,7 +3500,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>44</v>
       </c>
@@ -3529,7 +3547,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>45</v>
       </c>
@@ -3576,7 +3594,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>46</v>
       </c>
@@ -3623,7 +3641,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>47</v>
       </c>
@@ -3670,7 +3688,7 @@
         <v>2002</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -3717,7 +3735,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -3764,7 +3782,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -3811,7 +3829,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>18</v>
       </c>
@@ -3858,7 +3876,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>19</v>
       </c>
@@ -3905,7 +3923,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>20</v>
       </c>
@@ -3952,7 +3970,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>21</v>
       </c>
@@ -3999,7 +4017,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>22</v>
       </c>
@@ -4046,7 +4064,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -4093,7 +4111,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>24</v>
       </c>
@@ -4140,7 +4158,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>25</v>
       </c>
@@ -4187,7 +4205,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>26</v>
       </c>
@@ -4234,7 +4252,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>27</v>
       </c>
@@ -4281,7 +4299,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>28</v>
       </c>
@@ -4328,7 +4346,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>29</v>
       </c>
@@ -4375,7 +4393,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>30</v>
       </c>
@@ -4422,7 +4440,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>31</v>
       </c>
@@ -4469,7 +4487,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>32</v>
       </c>
@@ -4516,7 +4534,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>33</v>
       </c>
@@ -4563,7 +4581,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>34</v>
       </c>
@@ -4610,7 +4628,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>35</v>
       </c>
@@ -4657,7 +4675,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>36</v>
       </c>
@@ -4704,7 +4722,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>37</v>
       </c>
@@ -4751,7 +4769,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>38</v>
       </c>
@@ -4798,7 +4816,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>39</v>
       </c>
@@ -4845,7 +4863,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>40</v>
       </c>
@@ -4892,7 +4910,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>41</v>
       </c>
@@ -4939,7 +4957,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>42</v>
       </c>
@@ -4986,7 +5004,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>43</v>
       </c>
@@ -5033,7 +5051,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>44</v>
       </c>
@@ -5080,7 +5098,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>45</v>
       </c>
@@ -5127,7 +5145,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>46</v>
       </c>
@@ -5174,7 +5192,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>47</v>
       </c>
@@ -5221,7 +5239,7 @@
         <v>2003</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>15</v>
       </c>
@@ -5268,7 +5286,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -5315,7 +5333,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>17</v>
       </c>
@@ -5362,7 +5380,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>18</v>
       </c>
@@ -5409,7 +5427,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>19</v>
       </c>
@@ -5456,7 +5474,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>20</v>
       </c>
@@ -5503,7 +5521,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>21</v>
       </c>
@@ -5550,7 +5568,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>22</v>
       </c>
@@ -5597,7 +5615,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>23</v>
       </c>
@@ -5644,7 +5662,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>24</v>
       </c>
@@ -5691,7 +5709,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>25</v>
       </c>
@@ -5738,7 +5756,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>26</v>
       </c>
@@ -5785,7 +5803,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>27</v>
       </c>
@@ -5832,7 +5850,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>28</v>
       </c>
@@ -5879,7 +5897,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>29</v>
       </c>
@@ -5926,7 +5944,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>30</v>
       </c>
@@ -5973,7 +5991,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>31</v>
       </c>
@@ -6020,7 +6038,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>32</v>
       </c>
@@ -6067,7 +6085,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>33</v>
       </c>
@@ -6114,7 +6132,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>34</v>
       </c>
@@ -6161,7 +6179,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>35</v>
       </c>
@@ -6208,7 +6226,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>36</v>
       </c>
@@ -6255,7 +6273,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>37</v>
       </c>
@@ -6302,7 +6320,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>38</v>
       </c>
@@ -6349,7 +6367,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>39</v>
       </c>
@@ -6396,7 +6414,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>40</v>
       </c>
@@ -6443,7 +6461,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>41</v>
       </c>
@@ -6490,7 +6508,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>42</v>
       </c>
@@ -6537,7 +6555,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>43</v>
       </c>
@@ -6584,7 +6602,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>44</v>
       </c>
@@ -6631,7 +6649,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>45</v>
       </c>
@@ -6678,7 +6696,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>46</v>
       </c>
@@ -6725,7 +6743,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>47</v>
       </c>
@@ -6772,7 +6790,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>15</v>
       </c>
@@ -6819,7 +6837,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -6866,7 +6884,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>17</v>
       </c>
@@ -6913,7 +6931,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>18</v>
       </c>
@@ -6960,7 +6978,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>19</v>
       </c>
@@ -7007,7 +7025,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>20</v>
       </c>
@@ -7054,7 +7072,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>21</v>
       </c>
@@ -7101,7 +7119,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>22</v>
       </c>
@@ -7148,7 +7166,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>23</v>
       </c>
@@ -7195,7 +7213,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>24</v>
       </c>
@@ -7242,7 +7260,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>25</v>
       </c>
@@ -7289,7 +7307,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>26</v>
       </c>
@@ -7336,7 +7354,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>27</v>
       </c>
@@ -7383,7 +7401,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>28</v>
       </c>
@@ -7430,7 +7448,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>29</v>
       </c>
@@ -7477,7 +7495,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>30</v>
       </c>
@@ -7524,7 +7542,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>31</v>
       </c>
@@ -7571,7 +7589,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>32</v>
       </c>
@@ -7618,7 +7636,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>33</v>
       </c>
@@ -7665,7 +7683,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>34</v>
       </c>
@@ -7712,7 +7730,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>35</v>
       </c>
@@ -7759,7 +7777,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>36</v>
       </c>
@@ -7806,7 +7824,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>37</v>
       </c>
@@ -7853,7 +7871,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>38</v>
       </c>
@@ -7900,7 +7918,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>39</v>
       </c>
@@ -7947,7 +7965,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>40</v>
       </c>
@@ -7994,7 +8012,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>41</v>
       </c>
@@ -8041,7 +8059,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>42</v>
       </c>
@@ -8088,7 +8106,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>43</v>
       </c>
@@ -8135,7 +8153,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>44</v>
       </c>
@@ -8182,7 +8200,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>45</v>
       </c>
@@ -8229,7 +8247,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>46</v>
       </c>
@@ -8276,7 +8294,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>47</v>
       </c>
@@ -8323,7 +8341,7 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>15</v>
       </c>
@@ -8370,7 +8388,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>16</v>
       </c>
@@ -8417,7 +8435,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>17</v>
       </c>
@@ -8464,7 +8482,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>18</v>
       </c>
@@ -8511,7 +8529,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>19</v>
       </c>
@@ -8558,7 +8576,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>20</v>
       </c>
@@ -8605,7 +8623,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>21</v>
       </c>
@@ -8652,7 +8670,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>22</v>
       </c>
@@ -8699,7 +8717,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>23</v>
       </c>
@@ -8746,7 +8764,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>24</v>
       </c>
@@ -8793,7 +8811,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>25</v>
       </c>
@@ -8840,7 +8858,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>26</v>
       </c>
@@ -8887,7 +8905,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>27</v>
       </c>
@@ -8934,7 +8952,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>28</v>
       </c>
@@ -8981,7 +8999,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>29</v>
       </c>
@@ -9028,7 +9046,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>30</v>
       </c>
@@ -9075,7 +9093,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>31</v>
       </c>
@@ -9122,7 +9140,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>32</v>
       </c>
@@ -9169,7 +9187,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>33</v>
       </c>
@@ -9216,7 +9234,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>34</v>
       </c>
@@ -9263,7 +9281,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>35</v>
       </c>
@@ -9310,7 +9328,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>36</v>
       </c>
@@ -9357,7 +9375,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>37</v>
       </c>
@@ -9404,7 +9422,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>38</v>
       </c>
@@ -9451,7 +9469,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>39</v>
       </c>
@@ -9498,7 +9516,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>40</v>
       </c>
@@ -9545,7 +9563,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>41</v>
       </c>
@@ -9592,7 +9610,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>42</v>
       </c>
@@ -9639,7 +9657,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>43</v>
       </c>
@@ -9686,7 +9704,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>44</v>
       </c>
@@ -9733,7 +9751,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>45</v>
       </c>
@@ -9780,7 +9798,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>46</v>
       </c>
@@ -9827,7 +9845,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>47</v>
       </c>
@@ -9874,7 +9892,7 @@
         <v>2006</v>
       </c>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>15</v>
       </c>
@@ -9921,7 +9939,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>16</v>
       </c>
@@ -9968,7 +9986,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>17</v>
       </c>
@@ -10015,7 +10033,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>18</v>
       </c>
@@ -10062,7 +10080,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>19</v>
       </c>
@@ -10109,7 +10127,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="205" spans="1:15">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>20</v>
       </c>
@@ -10156,7 +10174,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>21</v>
       </c>
@@ -10203,7 +10221,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="207" spans="1:15">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>22</v>
       </c>
@@ -10250,7 +10268,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>23</v>
       </c>
@@ -10297,7 +10315,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>24</v>
       </c>
@@ -10344,7 +10362,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>25</v>
       </c>
@@ -10391,7 +10409,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>26</v>
       </c>
@@ -10438,7 +10456,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>27</v>
       </c>
@@ -10485,7 +10503,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>28</v>
       </c>
@@ -10532,7 +10550,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>29</v>
       </c>
@@ -10579,7 +10597,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="215" spans="1:15">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>30</v>
       </c>
@@ -10626,7 +10644,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>31</v>
       </c>
@@ -10673,7 +10691,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>32</v>
       </c>
@@ -10720,7 +10738,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>33</v>
       </c>
@@ -10767,7 +10785,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>34</v>
       </c>
@@ -10814,7 +10832,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>35</v>
       </c>
@@ -10861,7 +10879,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="221" spans="1:15">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>36</v>
       </c>
@@ -10908,7 +10926,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="222" spans="1:15">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>37</v>
       </c>
@@ -10955,7 +10973,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="223" spans="1:15">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>38</v>
       </c>
@@ -11002,7 +11020,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="224" spans="1:15">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>39</v>
       </c>
@@ -11049,7 +11067,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="225" spans="1:15">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>40</v>
       </c>
@@ -11096,7 +11114,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="226" spans="1:15">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>41</v>
       </c>
@@ -11143,7 +11161,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>42</v>
       </c>
@@ -11190,7 +11208,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>43</v>
       </c>
@@ -11237,7 +11255,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>44</v>
       </c>
@@ -11284,7 +11302,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>45</v>
       </c>
@@ -11331,7 +11349,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>46</v>
       </c>
@@ -11378,7 +11396,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>47</v>
       </c>
@@ -11425,7 +11443,7 @@
         <v>2007</v>
       </c>
     </row>
-    <row r="233" spans="1:15">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>15</v>
       </c>
@@ -11472,7 +11490,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="234" spans="1:15">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>16</v>
       </c>
@@ -11519,7 +11537,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>17</v>
       </c>
@@ -11566,7 +11584,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="236" spans="1:15">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>18</v>
       </c>
@@ -11613,7 +11631,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="237" spans="1:15">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>19</v>
       </c>
@@ -11660,7 +11678,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>20</v>
       </c>
@@ -11707,7 +11725,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="239" spans="1:15">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>21</v>
       </c>
@@ -11754,7 +11772,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>22</v>
       </c>
@@ -11801,7 +11819,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="241" spans="1:15">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>23</v>
       </c>
@@ -11848,7 +11866,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="242" spans="1:15">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>24</v>
       </c>
@@ -11895,7 +11913,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="243" spans="1:15">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>25</v>
       </c>
@@ -11942,7 +11960,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="244" spans="1:15">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>26</v>
       </c>
@@ -11989,7 +12007,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="245" spans="1:15">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>27</v>
       </c>
@@ -12036,7 +12054,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="246" spans="1:15">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>28</v>
       </c>
@@ -12083,7 +12101,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="247" spans="1:15">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>29</v>
       </c>
@@ -12130,7 +12148,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="248" spans="1:15">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>30</v>
       </c>
@@ -12177,7 +12195,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="249" spans="1:15">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>31</v>
       </c>
@@ -12224,7 +12242,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="250" spans="1:15">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>32</v>
       </c>
@@ -12271,7 +12289,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="251" spans="1:15">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>33</v>
       </c>
@@ -12318,7 +12336,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="252" spans="1:15">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>34</v>
       </c>
@@ -12365,7 +12383,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="253" spans="1:15">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>35</v>
       </c>
@@ -12412,7 +12430,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>36</v>
       </c>
@@ -12459,7 +12477,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="255" spans="1:15">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>37</v>
       </c>
@@ -12506,7 +12524,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="256" spans="1:15">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>38</v>
       </c>
@@ -12553,7 +12571,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="257" spans="1:15">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>39</v>
       </c>
@@ -12600,7 +12618,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="258" spans="1:15">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>40</v>
       </c>
@@ -12647,7 +12665,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="259" spans="1:15">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>41</v>
       </c>
@@ -12694,7 +12712,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="260" spans="1:15">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>42</v>
       </c>
@@ -12741,7 +12759,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="261" spans="1:15">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>43</v>
       </c>
@@ -12788,7 +12806,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="262" spans="1:15">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>44</v>
       </c>
@@ -12835,7 +12853,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="263" spans="1:15">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>45</v>
       </c>
@@ -12882,7 +12900,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="264" spans="1:15">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>46</v>
       </c>
@@ -12929,7 +12947,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="265" spans="1:15">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>47</v>
       </c>
@@ -12976,7 +12994,7 @@
         <v>2008</v>
       </c>
     </row>
-    <row r="266" spans="1:15">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>15</v>
       </c>
@@ -13023,7 +13041,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="267" spans="1:15">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>16</v>
       </c>
@@ -13070,7 +13088,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="268" spans="1:15">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>17</v>
       </c>
@@ -13117,7 +13135,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="269" spans="1:15">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>18</v>
       </c>
@@ -13164,7 +13182,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="270" spans="1:15">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>19</v>
       </c>
@@ -13211,7 +13229,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="271" spans="1:15">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>20</v>
       </c>
@@ -13258,7 +13276,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="272" spans="1:15">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>21</v>
       </c>
@@ -13305,7 +13323,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="273" spans="1:15">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>22</v>
       </c>
@@ -13352,7 +13370,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="274" spans="1:15">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>23</v>
       </c>
@@ -13399,7 +13417,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="275" spans="1:15">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>24</v>
       </c>
@@ -13446,7 +13464,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="276" spans="1:15">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>25</v>
       </c>
@@ -13493,7 +13511,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="277" spans="1:15">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>26</v>
       </c>
@@ -13540,7 +13558,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="278" spans="1:15">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>27</v>
       </c>
@@ -13587,7 +13605,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="279" spans="1:15">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>28</v>
       </c>
@@ -13634,7 +13652,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="280" spans="1:15">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>29</v>
       </c>
@@ -13681,7 +13699,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="281" spans="1:15">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>30</v>
       </c>
@@ -13728,7 +13746,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="282" spans="1:15">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>31</v>
       </c>
@@ -13775,7 +13793,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="283" spans="1:15">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>32</v>
       </c>
@@ -13822,7 +13840,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="284" spans="1:15">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>33</v>
       </c>
@@ -13869,7 +13887,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="285" spans="1:15">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>34</v>
       </c>
@@ -13916,7 +13934,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="286" spans="1:15">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>35</v>
       </c>
@@ -13963,7 +13981,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="287" spans="1:15">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>36</v>
       </c>
@@ -14010,7 +14028,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="288" spans="1:15">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>37</v>
       </c>
@@ -14057,7 +14075,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="289" spans="1:15">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>38</v>
       </c>
@@ -14104,7 +14122,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="290" spans="1:15">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>39</v>
       </c>
@@ -14151,7 +14169,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="291" spans="1:15">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>40</v>
       </c>
@@ -14198,7 +14216,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="292" spans="1:15">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>41</v>
       </c>
@@ -14245,7 +14263,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="293" spans="1:15">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>42</v>
       </c>
@@ -14292,7 +14310,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="294" spans="1:15">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>43</v>
       </c>
@@ -14339,7 +14357,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="295" spans="1:15">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>44</v>
       </c>
@@ -14386,7 +14404,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="296" spans="1:15">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>45</v>
       </c>
@@ -14433,7 +14451,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="297" spans="1:15">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>46</v>
       </c>
@@ -14480,7 +14498,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="298" spans="1:15">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>47</v>
       </c>
@@ -14527,7 +14545,7 @@
         <v>2009</v>
       </c>
     </row>
-    <row r="299" spans="1:15">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>15</v>
       </c>
@@ -14574,7 +14592,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="300" spans="1:15">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>16</v>
       </c>
@@ -14621,7 +14639,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="301" spans="1:15">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>17</v>
       </c>
@@ -14668,7 +14686,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="302" spans="1:15">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>18</v>
       </c>
@@ -14715,7 +14733,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="303" spans="1:15">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>19</v>
       </c>
@@ -14762,7 +14780,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="304" spans="1:15">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>20</v>
       </c>
@@ -14809,7 +14827,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="305" spans="1:15">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>21</v>
       </c>
@@ -14856,7 +14874,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="306" spans="1:15">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>22</v>
       </c>
@@ -14903,7 +14921,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="307" spans="1:15">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>23</v>
       </c>
@@ -14950,7 +14968,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="308" spans="1:15">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>24</v>
       </c>
@@ -14997,7 +15015,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="309" spans="1:15">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>25</v>
       </c>
@@ -15044,7 +15062,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="310" spans="1:15">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>26</v>
       </c>
@@ -15091,7 +15109,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="311" spans="1:15">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>27</v>
       </c>
@@ -15138,7 +15156,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="312" spans="1:15">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>28</v>
       </c>
@@ -15185,7 +15203,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="313" spans="1:15">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>29</v>
       </c>
@@ -15232,7 +15250,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="314" spans="1:15">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>30</v>
       </c>
@@ -15279,7 +15297,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="315" spans="1:15">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>31</v>
       </c>
@@ -15326,7 +15344,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="316" spans="1:15">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>32</v>
       </c>
@@ -15373,7 +15391,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="317" spans="1:15">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>33</v>
       </c>
@@ -15420,7 +15438,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="318" spans="1:15">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>34</v>
       </c>
@@ -15467,7 +15485,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="319" spans="1:15">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>35</v>
       </c>
@@ -15514,7 +15532,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="320" spans="1:15">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>36</v>
       </c>
@@ -15561,7 +15579,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="321" spans="1:15">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>37</v>
       </c>
@@ -15608,7 +15626,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="322" spans="1:15">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>38</v>
       </c>
@@ -15655,7 +15673,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="323" spans="1:15">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>39</v>
       </c>
@@ -15702,7 +15720,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="324" spans="1:15">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>40</v>
       </c>
@@ -15749,7 +15767,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="325" spans="1:15">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>41</v>
       </c>
@@ -15796,7 +15814,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="326" spans="1:15">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>42</v>
       </c>
@@ -15843,7 +15861,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="327" spans="1:15">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>43</v>
       </c>
@@ -15890,7 +15908,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="328" spans="1:15">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>44</v>
       </c>
@@ -15937,7 +15955,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="329" spans="1:15">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>45</v>
       </c>
@@ -15984,7 +16002,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="330" spans="1:15">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>46</v>
       </c>
@@ -16031,7 +16049,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="331" spans="1:15">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>47</v>
       </c>
@@ -16078,7 +16096,7 @@
         <v>2010</v>
       </c>
     </row>
-    <row r="332" spans="1:15">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>15</v>
       </c>
@@ -16125,7 +16143,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="333" spans="1:15">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>16</v>
       </c>
@@ -16172,7 +16190,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="334" spans="1:15">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>17</v>
       </c>
@@ -16219,7 +16237,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="335" spans="1:15">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>18</v>
       </c>
@@ -16266,7 +16284,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="336" spans="1:15">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>19</v>
       </c>
@@ -16313,7 +16331,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="337" spans="1:15">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>20</v>
       </c>
@@ -16360,7 +16378,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="338" spans="1:15">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>21</v>
       </c>
@@ -16407,7 +16425,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="339" spans="1:15">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>22</v>
       </c>
@@ -16454,7 +16472,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="340" spans="1:15">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>23</v>
       </c>
@@ -16501,7 +16519,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="341" spans="1:15">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>24</v>
       </c>
@@ -16548,7 +16566,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="342" spans="1:15">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>25</v>
       </c>
@@ -16595,7 +16613,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="343" spans="1:15">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>26</v>
       </c>
@@ -16642,7 +16660,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="344" spans="1:15">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>27</v>
       </c>
@@ -16689,7 +16707,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="345" spans="1:15">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>28</v>
       </c>
@@ -16736,7 +16754,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="346" spans="1:15">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>29</v>
       </c>
@@ -16783,7 +16801,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="347" spans="1:15">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>30</v>
       </c>
@@ -16830,7 +16848,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="348" spans="1:15">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>31</v>
       </c>
@@ -16877,7 +16895,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="349" spans="1:15">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>32</v>
       </c>
@@ -16924,7 +16942,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="350" spans="1:15">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>33</v>
       </c>
@@ -16971,7 +16989,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="351" spans="1:15">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>34</v>
       </c>
@@ -17018,7 +17036,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="352" spans="1:15">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>35</v>
       </c>
@@ -17065,7 +17083,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="353" spans="1:15">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>36</v>
       </c>
@@ -17112,7 +17130,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="354" spans="1:15">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>37</v>
       </c>
@@ -17159,7 +17177,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="355" spans="1:15">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>38</v>
       </c>
@@ -17206,7 +17224,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="356" spans="1:15">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>39</v>
       </c>
@@ -17253,7 +17271,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="357" spans="1:15">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>40</v>
       </c>
@@ -17300,7 +17318,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="358" spans="1:15">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>41</v>
       </c>
@@ -17347,7 +17365,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="359" spans="1:15">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>42</v>
       </c>
@@ -17394,7 +17412,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="360" spans="1:15">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>43</v>
       </c>
@@ -17441,7 +17459,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="361" spans="1:15">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>44</v>
       </c>
@@ -17488,7 +17506,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="362" spans="1:15">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>45</v>
       </c>
@@ -17535,7 +17553,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="363" spans="1:15">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>46</v>
       </c>
@@ -17582,7 +17600,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="364" spans="1:15">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>47</v>
       </c>
@@ -17629,7 +17647,7 @@
         <v>2011</v>
       </c>
     </row>
-    <row r="365" spans="1:15">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>15</v>
       </c>
@@ -17676,7 +17694,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="366" spans="1:15">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>16</v>
       </c>
@@ -17723,7 +17741,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="367" spans="1:15">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>17</v>
       </c>
@@ -17770,7 +17788,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="368" spans="1:15">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>18</v>
       </c>
@@ -17817,7 +17835,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="369" spans="1:15">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>19</v>
       </c>
@@ -17864,7 +17882,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="370" spans="1:15">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>20</v>
       </c>
@@ -17911,7 +17929,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="371" spans="1:15">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>21</v>
       </c>
@@ -17958,7 +17976,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="372" spans="1:15">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>22</v>
       </c>
@@ -18005,7 +18023,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="373" spans="1:15">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>23</v>
       </c>
@@ -18052,7 +18070,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="374" spans="1:15">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>24</v>
       </c>
@@ -18099,7 +18117,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="375" spans="1:15">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>25</v>
       </c>
@@ -18146,7 +18164,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="376" spans="1:15">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>26</v>
       </c>
@@ -18193,7 +18211,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="377" spans="1:15">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>27</v>
       </c>
@@ -18240,7 +18258,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="378" spans="1:15">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>28</v>
       </c>
@@ -18287,7 +18305,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="379" spans="1:15">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>29</v>
       </c>
@@ -18334,7 +18352,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="380" spans="1:15">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>30</v>
       </c>
@@ -18381,7 +18399,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="381" spans="1:15">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>31</v>
       </c>
@@ -18428,7 +18446,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="382" spans="1:15">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>32</v>
       </c>
@@ -18475,7 +18493,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="383" spans="1:15">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>33</v>
       </c>
@@ -18522,7 +18540,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="384" spans="1:15">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>34</v>
       </c>
@@ -18569,7 +18587,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="385" spans="1:15">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>35</v>
       </c>
@@ -18616,7 +18634,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="386" spans="1:15">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>36</v>
       </c>
@@ -18663,7 +18681,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="387" spans="1:15">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>37</v>
       </c>
@@ -18710,7 +18728,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="388" spans="1:15">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>38</v>
       </c>
@@ -18757,7 +18775,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="389" spans="1:15">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>39</v>
       </c>
@@ -18804,7 +18822,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="390" spans="1:15">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>40</v>
       </c>
@@ -18851,7 +18869,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="391" spans="1:15">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>41</v>
       </c>
@@ -18898,7 +18916,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="392" spans="1:15">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>42</v>
       </c>
@@ -18945,7 +18963,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="393" spans="1:15">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>43</v>
       </c>
@@ -18992,7 +19010,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="394" spans="1:15">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>44</v>
       </c>
@@ -19039,7 +19057,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="395" spans="1:15">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>45</v>
       </c>
@@ -19086,7 +19104,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="396" spans="1:15">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>46</v>
       </c>
@@ -19133,7 +19151,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="397" spans="1:15">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>47</v>
       </c>
@@ -19180,7 +19198,7 @@
         <v>2012</v>
       </c>
     </row>
-    <row r="398" spans="1:15">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>15</v>
       </c>
@@ -19227,7 +19245,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="399" spans="1:15">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>16</v>
       </c>
@@ -19274,7 +19292,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="400" spans="1:15">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>17</v>
       </c>
@@ -19321,7 +19339,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="401" spans="1:15">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>18</v>
       </c>
@@ -19368,7 +19386,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="402" spans="1:15">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>19</v>
       </c>
@@ -19415,7 +19433,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="403" spans="1:15">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>20</v>
       </c>
@@ -19462,7 +19480,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="404" spans="1:15">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>21</v>
       </c>
@@ -19509,7 +19527,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="405" spans="1:15">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>22</v>
       </c>
@@ -19556,7 +19574,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="406" spans="1:15">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>23</v>
       </c>
@@ -19603,7 +19621,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="407" spans="1:15">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>24</v>
       </c>
@@ -19650,7 +19668,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="408" spans="1:15">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>25</v>
       </c>
@@ -19697,7 +19715,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="409" spans="1:15">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>26</v>
       </c>
@@ -19744,7 +19762,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="410" spans="1:15">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>27</v>
       </c>
@@ -19791,7 +19809,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="411" spans="1:15">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>28</v>
       </c>
@@ -19838,7 +19856,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="412" spans="1:15">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>29</v>
       </c>
@@ -19885,7 +19903,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="413" spans="1:15">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>30</v>
       </c>
@@ -19932,7 +19950,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="414" spans="1:15">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>31</v>
       </c>
@@ -19979,7 +19997,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="415" spans="1:15">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>32</v>
       </c>
@@ -20026,7 +20044,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="416" spans="1:15">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>33</v>
       </c>
@@ -20073,7 +20091,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="417" spans="1:15">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>34</v>
       </c>
@@ -20120,7 +20138,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="418" spans="1:15">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>35</v>
       </c>
@@ -20167,7 +20185,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="419" spans="1:15">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>36</v>
       </c>
@@ -20214,7 +20232,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="420" spans="1:15">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>37</v>
       </c>
@@ -20261,7 +20279,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="421" spans="1:15">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>38</v>
       </c>
@@ -20308,7 +20326,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="422" spans="1:15">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>39</v>
       </c>
@@ -20355,7 +20373,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="423" spans="1:15">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>40</v>
       </c>
@@ -20402,7 +20420,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="424" spans="1:15">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>41</v>
       </c>
@@ -20449,7 +20467,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="425" spans="1:15">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>42</v>
       </c>
@@ -20496,7 +20514,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="426" spans="1:15">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>43</v>
       </c>
@@ -20543,7 +20561,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="427" spans="1:15">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>44</v>
       </c>
@@ -20590,7 +20608,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="428" spans="1:15">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>45</v>
       </c>
@@ -20637,7 +20655,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="429" spans="1:15">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>46</v>
       </c>
@@ -20684,7 +20702,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="430" spans="1:15">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>47</v>
       </c>
@@ -20731,7 +20749,7 @@
         <v>2013</v>
       </c>
     </row>
-    <row r="431" spans="1:15">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>15</v>
       </c>
@@ -20778,7 +20796,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="432" spans="1:15">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>16</v>
       </c>
@@ -20825,7 +20843,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="433" spans="1:15">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>17</v>
       </c>
@@ -20872,7 +20890,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="434" spans="1:15">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>18</v>
       </c>
@@ -20919,7 +20937,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="435" spans="1:15">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>19</v>
       </c>
@@ -20966,7 +20984,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="436" spans="1:15">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>20</v>
       </c>
@@ -21013,7 +21031,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="437" spans="1:15">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>21</v>
       </c>
@@ -21060,7 +21078,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="438" spans="1:15">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>22</v>
       </c>
@@ -21107,7 +21125,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="439" spans="1:15">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>23</v>
       </c>
@@ -21154,7 +21172,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="440" spans="1:15">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>24</v>
       </c>
@@ -21201,7 +21219,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="441" spans="1:15">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>25</v>
       </c>
@@ -21248,7 +21266,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="442" spans="1:15">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>26</v>
       </c>
@@ -21295,7 +21313,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="443" spans="1:15">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>27</v>
       </c>
@@ -21342,7 +21360,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="444" spans="1:15">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>28</v>
       </c>
@@ -21389,7 +21407,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="445" spans="1:15">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>29</v>
       </c>
@@ -21436,7 +21454,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="446" spans="1:15">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>30</v>
       </c>
@@ -21483,7 +21501,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="447" spans="1:15">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>31</v>
       </c>
@@ -21530,7 +21548,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="448" spans="1:15">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>32</v>
       </c>
@@ -21577,7 +21595,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="449" spans="1:15">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>33</v>
       </c>
@@ -21624,7 +21642,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="450" spans="1:15">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>34</v>
       </c>
@@ -21671,7 +21689,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="451" spans="1:15">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>35</v>
       </c>
@@ -21718,7 +21736,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="452" spans="1:15">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>36</v>
       </c>
@@ -21765,7 +21783,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="453" spans="1:15">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>37</v>
       </c>
@@ -21812,7 +21830,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="454" spans="1:15">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>38</v>
       </c>
@@ -21859,7 +21877,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="455" spans="1:15">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>39</v>
       </c>
@@ -21906,7 +21924,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="456" spans="1:15">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>40</v>
       </c>
@@ -21953,7 +21971,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="457" spans="1:15">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>41</v>
       </c>
@@ -22000,7 +22018,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="458" spans="1:15">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>42</v>
       </c>
@@ -22047,7 +22065,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="459" spans="1:15">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>43</v>
       </c>
@@ -22094,7 +22112,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="460" spans="1:15">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>44</v>
       </c>
@@ -22141,7 +22159,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="461" spans="1:15">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>45</v>
       </c>
@@ -22188,7 +22206,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="462" spans="1:15">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>46</v>
       </c>
@@ -22235,7 +22253,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="463" spans="1:15">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>47</v>
       </c>
@@ -22282,7 +22300,7 @@
         <v>2014</v>
       </c>
     </row>
-    <row r="464" spans="1:15">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>15</v>
       </c>
@@ -22329,7 +22347,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="465" spans="1:15">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>16</v>
       </c>
@@ -22376,7 +22394,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="466" spans="1:15">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>17</v>
       </c>
@@ -22423,7 +22441,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="467" spans="1:15">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>18</v>
       </c>
@@ -22470,7 +22488,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="468" spans="1:15">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>19</v>
       </c>
@@ -22517,7 +22535,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="469" spans="1:15">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>20</v>
       </c>
@@ -22564,7 +22582,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="470" spans="1:15">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>21</v>
       </c>
@@ -22611,7 +22629,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="471" spans="1:15">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>22</v>
       </c>
@@ -22658,7 +22676,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="472" spans="1:15">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>23</v>
       </c>
@@ -22705,7 +22723,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="473" spans="1:15">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>24</v>
       </c>
@@ -22752,7 +22770,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="474" spans="1:15">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>25</v>
       </c>
@@ -22799,7 +22817,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="475" spans="1:15">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>26</v>
       </c>
@@ -22846,7 +22864,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="476" spans="1:15">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>27</v>
       </c>
@@ -22893,7 +22911,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="477" spans="1:15">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>28</v>
       </c>
@@ -22940,7 +22958,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="478" spans="1:15">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>29</v>
       </c>
@@ -22987,7 +23005,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="479" spans="1:15">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>30</v>
       </c>
@@ -23034,7 +23052,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="480" spans="1:15">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>31</v>
       </c>
@@ -23081,7 +23099,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="481" spans="1:15">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>32</v>
       </c>
@@ -23128,7 +23146,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="482" spans="1:15">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>33</v>
       </c>
@@ -23175,7 +23193,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="483" spans="1:15">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>34</v>
       </c>
@@ -23222,7 +23240,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="484" spans="1:15">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>35</v>
       </c>
@@ -23269,7 +23287,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="485" spans="1:15">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>36</v>
       </c>
@@ -23316,7 +23334,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="486" spans="1:15">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>37</v>
       </c>
@@ -23363,7 +23381,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="487" spans="1:15">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>38</v>
       </c>
@@ -23410,7 +23428,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="488" spans="1:15">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>39</v>
       </c>
@@ -23457,7 +23475,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="489" spans="1:15">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>40</v>
       </c>
@@ -23504,7 +23522,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="490" spans="1:15">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>41</v>
       </c>
@@ -23551,7 +23569,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="491" spans="1:15">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>42</v>
       </c>
@@ -23598,7 +23616,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="492" spans="1:15">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>43</v>
       </c>
@@ -23645,7 +23663,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="493" spans="1:15">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>44</v>
       </c>
@@ -23692,7 +23710,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="494" spans="1:15">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>45</v>
       </c>
@@ -23739,7 +23757,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="495" spans="1:15">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>46</v>
       </c>
@@ -23786,7 +23804,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="496" spans="1:15">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>47</v>
       </c>
@@ -23833,7 +23851,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="497" spans="1:15">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>15</v>
       </c>
@@ -23880,7 +23898,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="498" spans="1:15">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>16</v>
       </c>
@@ -23927,7 +23945,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="499" spans="1:15">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>17</v>
       </c>
@@ -23974,7 +23992,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="500" spans="1:15">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>18</v>
       </c>
@@ -24021,7 +24039,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="501" spans="1:15">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>19</v>
       </c>
@@ -24068,7 +24086,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="502" spans="1:15">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>20</v>
       </c>
@@ -24115,7 +24133,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="503" spans="1:15">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>21</v>
       </c>
@@ -24162,7 +24180,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="504" spans="1:15">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>22</v>
       </c>
@@ -24209,7 +24227,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="505" spans="1:15">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>23</v>
       </c>
@@ -24256,7 +24274,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="506" spans="1:15">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>24</v>
       </c>
@@ -24303,7 +24321,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="507" spans="1:15">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>25</v>
       </c>
@@ -24350,7 +24368,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="508" spans="1:15">
+    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>26</v>
       </c>
@@ -24397,7 +24415,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="509" spans="1:15">
+    <row r="509" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>27</v>
       </c>
@@ -24444,7 +24462,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="510" spans="1:15">
+    <row r="510" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>28</v>
       </c>
@@ -24491,7 +24509,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="511" spans="1:15">
+    <row r="511" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>29</v>
       </c>
@@ -24538,7 +24556,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="512" spans="1:15">
+    <row r="512" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>30</v>
       </c>
@@ -24585,7 +24603,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="513" spans="1:15">
+    <row r="513" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>31</v>
       </c>
@@ -24632,7 +24650,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="514" spans="1:15">
+    <row r="514" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>32</v>
       </c>
@@ -24679,7 +24697,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="515" spans="1:15">
+    <row r="515" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>33</v>
       </c>
@@ -24726,7 +24744,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="516" spans="1:15">
+    <row r="516" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>34</v>
       </c>
@@ -24773,7 +24791,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="517" spans="1:15">
+    <row r="517" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>35</v>
       </c>
@@ -24820,7 +24838,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="518" spans="1:15">
+    <row r="518" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>36</v>
       </c>
@@ -24867,7 +24885,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="519" spans="1:15">
+    <row r="519" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>37</v>
       </c>
@@ -24914,7 +24932,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="520" spans="1:15">
+    <row r="520" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>38</v>
       </c>
@@ -24961,7 +24979,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="521" spans="1:15">
+    <row r="521" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>39</v>
       </c>
@@ -25008,7 +25026,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="522" spans="1:15">
+    <row r="522" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>40</v>
       </c>
@@ -25055,7 +25073,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="523" spans="1:15">
+    <row r="523" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>41</v>
       </c>
@@ -25102,7 +25120,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="524" spans="1:15">
+    <row r="524" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>42</v>
       </c>
@@ -25149,7 +25167,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="525" spans="1:15">
+    <row r="525" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>43</v>
       </c>
@@ -25196,7 +25214,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="526" spans="1:15">
+    <row r="526" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>44</v>
       </c>
@@ -25243,7 +25261,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="527" spans="1:15">
+    <row r="527" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>45</v>
       </c>
@@ -25290,7 +25308,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="528" spans="1:15">
+    <row r="528" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>46</v>
       </c>
@@ -25337,7 +25355,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="529" spans="1:15">
+    <row r="529" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>47</v>
       </c>
@@ -25384,7 +25402,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="530" spans="1:15">
+    <row r="530" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>15</v>
       </c>
@@ -25431,7 +25449,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="531" spans="1:15">
+    <row r="531" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>16</v>
       </c>
@@ -25478,7 +25496,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="532" spans="1:15">
+    <row r="532" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>17</v>
       </c>
@@ -25525,7 +25543,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="533" spans="1:15">
+    <row r="533" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>18</v>
       </c>
@@ -25572,7 +25590,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="534" spans="1:15">
+    <row r="534" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>19</v>
       </c>
@@ -25619,7 +25637,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="535" spans="1:15">
+    <row r="535" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>20</v>
       </c>
@@ -25666,7 +25684,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="536" spans="1:15">
+    <row r="536" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>21</v>
       </c>
@@ -25713,7 +25731,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="537" spans="1:15">
+    <row r="537" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>22</v>
       </c>
@@ -25760,7 +25778,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="538" spans="1:15">
+    <row r="538" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>23</v>
       </c>
@@ -25807,7 +25825,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="539" spans="1:15">
+    <row r="539" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>24</v>
       </c>
@@ -25854,7 +25872,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="540" spans="1:15">
+    <row r="540" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>25</v>
       </c>
@@ -25901,7 +25919,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="541" spans="1:15">
+    <row r="541" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>26</v>
       </c>
@@ -25948,7 +25966,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="542" spans="1:15">
+    <row r="542" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>27</v>
       </c>
@@ -25995,7 +26013,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="543" spans="1:15">
+    <row r="543" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>28</v>
       </c>
@@ -26042,7 +26060,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="544" spans="1:15">
+    <row r="544" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>29</v>
       </c>
@@ -26089,7 +26107,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="545" spans="1:15">
+    <row r="545" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>30</v>
       </c>
@@ -26136,7 +26154,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="546" spans="1:15">
+    <row r="546" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>31</v>
       </c>
@@ -26183,7 +26201,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="547" spans="1:15">
+    <row r="547" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>32</v>
       </c>
@@ -26230,7 +26248,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="548" spans="1:15">
+    <row r="548" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>33</v>
       </c>
@@ -26277,7 +26295,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="549" spans="1:15">
+    <row r="549" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>34</v>
       </c>
@@ -26324,7 +26342,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="550" spans="1:15">
+    <row r="550" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>35</v>
       </c>
@@ -26371,7 +26389,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="551" spans="1:15">
+    <row r="551" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>36</v>
       </c>
@@ -26418,7 +26436,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="552" spans="1:15">
+    <row r="552" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>37</v>
       </c>
@@ -26465,7 +26483,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="553" spans="1:15">
+    <row r="553" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>38</v>
       </c>
@@ -26512,7 +26530,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="554" spans="1:15">
+    <row r="554" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>39</v>
       </c>
@@ -26559,7 +26577,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="555" spans="1:15">
+    <row r="555" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>40</v>
       </c>
@@ -26606,7 +26624,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="556" spans="1:15">
+    <row r="556" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>41</v>
       </c>
@@ -26653,7 +26671,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="557" spans="1:15">
+    <row r="557" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>42</v>
       </c>
@@ -26700,7 +26718,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="558" spans="1:15">
+    <row r="558" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>43</v>
       </c>
@@ -26747,7 +26765,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="559" spans="1:15">
+    <row r="559" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>44</v>
       </c>
@@ -26794,7 +26812,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="560" spans="1:15">
+    <row r="560" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>45</v>
       </c>
@@ -26841,7 +26859,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="561" spans="1:15">
+    <row r="561" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>46</v>
       </c>
@@ -26888,7 +26906,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="562" spans="1:15">
+    <row r="562" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>47</v>
       </c>
@@ -26935,7 +26953,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="563" spans="1:15">
+    <row r="563" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>15</v>
       </c>
@@ -26982,7 +27000,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="564" spans="1:15">
+    <row r="564" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>16</v>
       </c>
@@ -27029,7 +27047,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="565" spans="1:15">
+    <row r="565" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>17</v>
       </c>
@@ -27076,7 +27094,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="566" spans="1:15">
+    <row r="566" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>18</v>
       </c>
@@ -27123,7 +27141,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="567" spans="1:15">
+    <row r="567" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>19</v>
       </c>
@@ -27170,7 +27188,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="568" spans="1:15">
+    <row r="568" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>20</v>
       </c>
@@ -27217,7 +27235,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="569" spans="1:15">
+    <row r="569" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>21</v>
       </c>
@@ -27264,7 +27282,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="570" spans="1:15">
+    <row r="570" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>22</v>
       </c>
@@ -27311,7 +27329,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="571" spans="1:15">
+    <row r="571" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>23</v>
       </c>
@@ -27358,7 +27376,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="572" spans="1:15">
+    <row r="572" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>24</v>
       </c>
@@ -27405,7 +27423,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="573" spans="1:15">
+    <row r="573" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>25</v>
       </c>
@@ -27452,7 +27470,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="574" spans="1:15">
+    <row r="574" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>26</v>
       </c>
@@ -27499,7 +27517,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="575" spans="1:15">
+    <row r="575" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>27</v>
       </c>
@@ -27546,7 +27564,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="576" spans="1:15">
+    <row r="576" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>28</v>
       </c>
@@ -27593,7 +27611,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="577" spans="1:15">
+    <row r="577" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>29</v>
       </c>
@@ -27640,7 +27658,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="578" spans="1:15">
+    <row r="578" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>30</v>
       </c>
@@ -27687,7 +27705,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="579" spans="1:15">
+    <row r="579" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>31</v>
       </c>
@@ -27734,7 +27752,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="580" spans="1:15">
+    <row r="580" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>32</v>
       </c>
@@ -27781,7 +27799,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="581" spans="1:15">
+    <row r="581" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>33</v>
       </c>
@@ -27828,7 +27846,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="582" spans="1:15">
+    <row r="582" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>34</v>
       </c>
@@ -27875,7 +27893,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="583" spans="1:15">
+    <row r="583" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>35</v>
       </c>
@@ -27922,7 +27940,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="584" spans="1:15">
+    <row r="584" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>36</v>
       </c>
@@ -27969,7 +27987,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="585" spans="1:15">
+    <row r="585" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>37</v>
       </c>
@@ -28016,7 +28034,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="586" spans="1:15">
+    <row r="586" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>38</v>
       </c>
@@ -28063,7 +28081,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="587" spans="1:15">
+    <row r="587" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>39</v>
       </c>
@@ -28110,7 +28128,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="588" spans="1:15">
+    <row r="588" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>40</v>
       </c>
@@ -28157,7 +28175,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="589" spans="1:15">
+    <row r="589" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>41</v>
       </c>
@@ -28204,7 +28222,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="590" spans="1:15">
+    <row r="590" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>42</v>
       </c>
@@ -28251,7 +28269,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="591" spans="1:15">
+    <row r="591" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>43</v>
       </c>
@@ -28298,7 +28316,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="592" spans="1:15">
+    <row r="592" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>44</v>
       </c>
@@ -28345,7 +28363,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="593" spans="1:15">
+    <row r="593" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>45</v>
       </c>
@@ -28392,7 +28410,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="594" spans="1:15">
+    <row r="594" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>46</v>
       </c>
@@ -28439,7 +28457,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="595" spans="1:15">
+    <row r="595" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>47</v>
       </c>
@@ -28486,7 +28504,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="596" spans="1:15">
+    <row r="596" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>15</v>
       </c>
@@ -28533,7 +28551,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="597" spans="1:15">
+    <row r="597" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>16</v>
       </c>
@@ -28580,7 +28598,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="598" spans="1:15">
+    <row r="598" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>17</v>
       </c>
@@ -28627,7 +28645,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="599" spans="1:15">
+    <row r="599" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>18</v>
       </c>
@@ -28674,7 +28692,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="600" spans="1:15">
+    <row r="600" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>19</v>
       </c>
@@ -28721,7 +28739,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="601" spans="1:15">
+    <row r="601" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>20</v>
       </c>
@@ -28768,7 +28786,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="602" spans="1:15">
+    <row r="602" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>21</v>
       </c>
@@ -28815,7 +28833,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="603" spans="1:15">
+    <row r="603" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>22</v>
       </c>
@@ -28862,7 +28880,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="604" spans="1:15">
+    <row r="604" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>23</v>
       </c>
@@ -28909,7 +28927,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="605" spans="1:15">
+    <row r="605" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>24</v>
       </c>
@@ -28956,7 +28974,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="606" spans="1:15">
+    <row r="606" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>25</v>
       </c>
@@ -29003,7 +29021,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="607" spans="1:15">
+    <row r="607" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>26</v>
       </c>
@@ -29050,7 +29068,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="608" spans="1:15">
+    <row r="608" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>27</v>
       </c>
@@ -29097,7 +29115,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="609" spans="1:15">
+    <row r="609" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>28</v>
       </c>
@@ -29144,7 +29162,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="610" spans="1:15">
+    <row r="610" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>29</v>
       </c>
@@ -29191,7 +29209,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="611" spans="1:15">
+    <row r="611" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>30</v>
       </c>
@@ -29238,7 +29256,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="612" spans="1:15">
+    <row r="612" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
         <v>31</v>
       </c>
@@ -29285,7 +29303,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="613" spans="1:15">
+    <row r="613" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
         <v>32</v>
       </c>
@@ -29332,7 +29350,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="614" spans="1:15">
+    <row r="614" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
         <v>33</v>
       </c>
@@ -29379,7 +29397,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="615" spans="1:15">
+    <row r="615" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>34</v>
       </c>
@@ -29426,7 +29444,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="616" spans="1:15">
+    <row r="616" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
         <v>35</v>
       </c>
@@ -29473,7 +29491,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="617" spans="1:15">
+    <row r="617" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
         <v>36</v>
       </c>
@@ -29520,7 +29538,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="618" spans="1:15">
+    <row r="618" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
         <v>37</v>
       </c>
@@ -29567,7 +29585,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="619" spans="1:15">
+    <row r="619" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
         <v>38</v>
       </c>
@@ -29614,7 +29632,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="620" spans="1:15">
+    <row r="620" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
         <v>39</v>
       </c>
@@ -29661,7 +29679,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="621" spans="1:15">
+    <row r="621" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
         <v>40</v>
       </c>
@@ -29708,7 +29726,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="622" spans="1:15">
+    <row r="622" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
         <v>41</v>
       </c>
@@ -29755,7 +29773,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="623" spans="1:15">
+    <row r="623" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
         <v>42</v>
       </c>
@@ -29802,7 +29820,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="624" spans="1:15">
+    <row r="624" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
         <v>43</v>
       </c>
@@ -29849,7 +29867,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="625" spans="1:15">
+    <row r="625" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
         <v>44</v>
       </c>
@@ -29896,7 +29914,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="626" spans="1:15">
+    <row r="626" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
         <v>45</v>
       </c>
@@ -29943,7 +29961,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="627" spans="1:15">
+    <row r="627" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
         <v>46</v>
       </c>
@@ -29990,7 +30008,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="628" spans="1:15">
+    <row r="628" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
         <v>47</v>
       </c>
@@ -30037,7 +30055,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="629" spans="1:15">
+    <row r="629" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
         <v>15</v>
       </c>
@@ -30084,7 +30102,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="630" spans="1:15">
+    <row r="630" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
         <v>16</v>
       </c>
@@ -30131,7 +30149,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="631" spans="1:15">
+    <row r="631" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
         <v>17</v>
       </c>
@@ -30178,7 +30196,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="632" spans="1:15">
+    <row r="632" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
         <v>18</v>
       </c>
@@ -30225,7 +30243,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="633" spans="1:15">
+    <row r="633" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
         <v>19</v>
       </c>
@@ -30272,7 +30290,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="634" spans="1:15">
+    <row r="634" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
         <v>20</v>
       </c>
@@ -30319,7 +30337,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="635" spans="1:15">
+    <row r="635" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
         <v>21</v>
       </c>
@@ -30366,7 +30384,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="636" spans="1:15">
+    <row r="636" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
         <v>22</v>
       </c>
@@ -30413,7 +30431,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="637" spans="1:15">
+    <row r="637" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
         <v>23</v>
       </c>
@@ -30460,7 +30478,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="638" spans="1:15">
+    <row r="638" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
         <v>24</v>
       </c>
@@ -30507,7 +30525,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="639" spans="1:15">
+    <row r="639" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
         <v>25</v>
       </c>
@@ -30554,7 +30572,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="640" spans="1:15">
+    <row r="640" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
         <v>26</v>
       </c>
@@ -30601,7 +30619,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="641" spans="1:15">
+    <row r="641" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
         <v>27</v>
       </c>
@@ -30648,7 +30666,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="642" spans="1:15">
+    <row r="642" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
         <v>28</v>
       </c>
@@ -30695,7 +30713,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="643" spans="1:15">
+    <row r="643" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
         <v>29</v>
       </c>
@@ -30742,7 +30760,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="644" spans="1:15">
+    <row r="644" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
         <v>30</v>
       </c>
@@ -30789,7 +30807,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="645" spans="1:15">
+    <row r="645" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
         <v>31</v>
       </c>
@@ -30836,7 +30854,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="646" spans="1:15">
+    <row r="646" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
         <v>32</v>
       </c>
@@ -30883,7 +30901,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="647" spans="1:15">
+    <row r="647" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
         <v>33</v>
       </c>
@@ -30930,7 +30948,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="648" spans="1:15">
+    <row r="648" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
         <v>34</v>
       </c>
@@ -30977,7 +30995,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="649" spans="1:15">
+    <row r="649" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>35</v>
       </c>
@@ -31024,7 +31042,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="650" spans="1:15">
+    <row r="650" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>36</v>
       </c>
@@ -31071,7 +31089,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="651" spans="1:15">
+    <row r="651" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>37</v>
       </c>
@@ -31118,7 +31136,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="652" spans="1:15">
+    <row r="652" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>38</v>
       </c>
@@ -31165,7 +31183,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="653" spans="1:15">
+    <row r="653" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>39</v>
       </c>
@@ -31212,7 +31230,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="654" spans="1:15">
+    <row r="654" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>40</v>
       </c>
@@ -31259,7 +31277,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="655" spans="1:15">
+    <row r="655" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>41</v>
       </c>
@@ -31306,7 +31324,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="656" spans="1:15">
+    <row r="656" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
         <v>42</v>
       </c>
@@ -31353,7 +31371,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="657" spans="1:15">
+    <row r="657" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
         <v>43</v>
       </c>
@@ -31400,7 +31418,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="658" spans="1:15">
+    <row r="658" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
         <v>44</v>
       </c>
@@ -31447,7 +31465,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="659" spans="1:15">
+    <row r="659" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
         <v>45</v>
       </c>
@@ -31494,7 +31512,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="660" spans="1:15">
+    <row r="660" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
         <v>46</v>
       </c>
@@ -31541,7 +31559,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="661" spans="1:15">
+    <row r="661" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
         <v>47</v>
       </c>
@@ -31588,7 +31606,7 @@
         <v>2020</v>
       </c>
     </row>
-    <row r="662" spans="1:15">
+    <row r="662" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
         <v>15</v>
       </c>
@@ -31635,7 +31653,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="663" spans="1:15">
+    <row r="663" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
         <v>16</v>
       </c>
@@ -31682,7 +31700,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="664" spans="1:15">
+    <row r="664" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
         <v>17</v>
       </c>
@@ -31729,7 +31747,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="665" spans="1:15">
+    <row r="665" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
         <v>18</v>
       </c>
@@ -31776,7 +31794,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="666" spans="1:15">
+    <row r="666" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
         <v>19</v>
       </c>
@@ -31823,7 +31841,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="667" spans="1:15">
+    <row r="667" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
         <v>20</v>
       </c>
@@ -31870,7 +31888,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="668" spans="1:15">
+    <row r="668" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
         <v>21</v>
       </c>
@@ -31917,7 +31935,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="669" spans="1:15">
+    <row r="669" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
         <v>22</v>
       </c>
@@ -31964,7 +31982,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="670" spans="1:15">
+    <row r="670" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
         <v>23</v>
       </c>
@@ -32011,7 +32029,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="671" spans="1:15">
+    <row r="671" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
         <v>24</v>
       </c>
@@ -32058,7 +32076,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="672" spans="1:15">
+    <row r="672" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
         <v>25</v>
       </c>
@@ -32105,7 +32123,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="673" spans="1:15">
+    <row r="673" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
         <v>26</v>
       </c>
@@ -32152,7 +32170,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="674" spans="1:15">
+    <row r="674" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
         <v>27</v>
       </c>
@@ -32199,7 +32217,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="675" spans="1:15">
+    <row r="675" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
         <v>28</v>
       </c>
@@ -32246,7 +32264,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="676" spans="1:15">
+    <row r="676" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
         <v>29</v>
       </c>
@@ -32293,7 +32311,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="677" spans="1:15">
+    <row r="677" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
         <v>30</v>
       </c>
@@ -32340,7 +32358,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="678" spans="1:15">
+    <row r="678" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
         <v>31</v>
       </c>
@@ -32387,7 +32405,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="679" spans="1:15">
+    <row r="679" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
         <v>32</v>
       </c>
@@ -32434,7 +32452,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="680" spans="1:15">
+    <row r="680" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
         <v>33</v>
       </c>
@@ -32481,7 +32499,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="681" spans="1:15">
+    <row r="681" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
         <v>34</v>
       </c>
@@ -32528,7 +32546,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="682" spans="1:15">
+    <row r="682" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
         <v>35</v>
       </c>
@@ -32575,7 +32593,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="683" spans="1:15">
+    <row r="683" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
         <v>36</v>
       </c>
@@ -32622,7 +32640,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="684" spans="1:15">
+    <row r="684" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
         <v>37</v>
       </c>
@@ -32669,7 +32687,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="685" spans="1:15">
+    <row r="685" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
         <v>38</v>
       </c>
@@ -32716,7 +32734,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="686" spans="1:15">
+    <row r="686" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
         <v>39</v>
       </c>
@@ -32763,7 +32781,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="687" spans="1:15">
+    <row r="687" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
         <v>40</v>
       </c>
@@ -32810,7 +32828,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="688" spans="1:15">
+    <row r="688" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
         <v>41</v>
       </c>
@@ -32857,7 +32875,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="689" spans="1:15">
+    <row r="689" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
         <v>42</v>
       </c>
@@ -32904,7 +32922,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="690" spans="1:15">
+    <row r="690" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
         <v>43</v>
       </c>
@@ -32951,7 +32969,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="691" spans="1:15">
+    <row r="691" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
         <v>44</v>
       </c>
@@ -32998,7 +33016,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="692" spans="1:15">
+    <row r="692" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
         <v>45</v>
       </c>
@@ -33045,7 +33063,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="693" spans="1:15">
+    <row r="693" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
         <v>46</v>
       </c>
@@ -33092,7 +33110,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="694" spans="1:15">
+    <row r="694" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
         <v>47</v>
       </c>
@@ -33139,7 +33157,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="695" spans="1:15">
+    <row r="695" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
         <v>15</v>
       </c>
@@ -33186,7 +33204,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="696" spans="1:15">
+    <row r="696" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
         <v>16</v>
       </c>
@@ -33233,7 +33251,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="697" spans="1:15">
+    <row r="697" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
         <v>17</v>
       </c>
@@ -33280,7 +33298,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="698" spans="1:15">
+    <row r="698" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
         <v>18</v>
       </c>
@@ -33327,7 +33345,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="699" spans="1:15">
+    <row r="699" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
         <v>19</v>
       </c>
@@ -33374,7 +33392,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="700" spans="1:15">
+    <row r="700" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
         <v>20</v>
       </c>
@@ -33421,7 +33439,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="701" spans="1:15">
+    <row r="701" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
         <v>21</v>
       </c>
@@ -33468,7 +33486,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="702" spans="1:15">
+    <row r="702" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
         <v>22</v>
       </c>
@@ -33515,7 +33533,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="703" spans="1:15">
+    <row r="703" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
         <v>23</v>
       </c>
@@ -33562,7 +33580,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="704" spans="1:15">
+    <row r="704" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
         <v>24</v>
       </c>
@@ -33609,7 +33627,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="705" spans="1:15">
+    <row r="705" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
         <v>25</v>
       </c>
@@ -33656,7 +33674,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="706" spans="1:15">
+    <row r="706" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
         <v>26</v>
       </c>
@@ -33703,7 +33721,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="707" spans="1:15">
+    <row r="707" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
         <v>27</v>
       </c>
@@ -33750,7 +33768,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="708" spans="1:15">
+    <row r="708" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
         <v>28</v>
       </c>
@@ -33797,7 +33815,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="709" spans="1:15">
+    <row r="709" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
         <v>29</v>
       </c>
@@ -33844,7 +33862,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="710" spans="1:15">
+    <row r="710" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
         <v>30</v>
       </c>
@@ -33891,7 +33909,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="711" spans="1:15">
+    <row r="711" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
         <v>31</v>
       </c>
@@ -33938,7 +33956,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="712" spans="1:15">
+    <row r="712" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
         <v>32</v>
       </c>
@@ -33985,7 +34003,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="713" spans="1:15">
+    <row r="713" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
         <v>33</v>
       </c>
@@ -34032,7 +34050,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="714" spans="1:15">
+    <row r="714" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
         <v>34</v>
       </c>
@@ -34079,7 +34097,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="715" spans="1:15">
+    <row r="715" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
         <v>35</v>
       </c>
@@ -34126,7 +34144,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="716" spans="1:15">
+    <row r="716" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
         <v>36</v>
       </c>
@@ -34173,7 +34191,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="717" spans="1:15">
+    <row r="717" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
         <v>37</v>
       </c>
@@ -34220,7 +34238,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="718" spans="1:15">
+    <row r="718" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
         <v>38</v>
       </c>
@@ -34267,7 +34285,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="719" spans="1:15">
+    <row r="719" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
         <v>39</v>
       </c>
@@ -34314,7 +34332,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="720" spans="1:15">
+    <row r="720" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
         <v>40</v>
       </c>
@@ -34361,7 +34379,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="721" spans="1:15">
+    <row r="721" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
         <v>41</v>
       </c>
@@ -34408,7 +34426,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="722" spans="1:15">
+    <row r="722" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
         <v>42</v>
       </c>
@@ -34455,7 +34473,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="723" spans="1:15">
+    <row r="723" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
         <v>43</v>
       </c>
@@ -34502,7 +34520,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="724" spans="1:15">
+    <row r="724" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
         <v>44</v>
       </c>
@@ -34549,7 +34567,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="725" spans="1:15">
+    <row r="725" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
         <v>45</v>
       </c>
@@ -34596,7 +34614,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="726" spans="1:15">
+    <row r="726" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
         <v>46</v>
       </c>
@@ -34643,7 +34661,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="727" spans="1:15">
+    <row r="727" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
         <v>47</v>
       </c>
@@ -34690,7 +34708,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="728" spans="1:15">
+    <row r="728" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
         <v>15</v>
       </c>
@@ -34737,7 +34755,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="729" spans="1:15">
+    <row r="729" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
         <v>16</v>
       </c>
@@ -34784,7 +34802,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="730" spans="1:15">
+    <row r="730" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
         <v>17</v>
       </c>
@@ -34831,7 +34849,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="731" spans="1:15">
+    <row r="731" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
         <v>18</v>
       </c>
@@ -34878,7 +34896,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="732" spans="1:15">
+    <row r="732" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
         <v>19</v>
       </c>
@@ -34925,7 +34943,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="733" spans="1:15">
+    <row r="733" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
         <v>20</v>
       </c>
@@ -34972,7 +34990,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="734" spans="1:15">
+    <row r="734" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
         <v>21</v>
       </c>
@@ -35019,7 +35037,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="735" spans="1:15">
+    <row r="735" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
         <v>22</v>
       </c>
@@ -35066,7 +35084,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="736" spans="1:15">
+    <row r="736" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
         <v>23</v>
       </c>
@@ -35113,7 +35131,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="737" spans="1:15">
+    <row r="737" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
         <v>24</v>
       </c>
@@ -35160,7 +35178,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="738" spans="1:15">
+    <row r="738" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
         <v>25</v>
       </c>
@@ -35207,7 +35225,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="739" spans="1:15">
+    <row r="739" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
         <v>26</v>
       </c>
@@ -35254,7 +35272,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="740" spans="1:15">
+    <row r="740" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
         <v>27</v>
       </c>
@@ -35301,7 +35319,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="741" spans="1:15">
+    <row r="741" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
         <v>28</v>
       </c>
@@ -35348,7 +35366,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="742" spans="1:15">
+    <row r="742" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
         <v>29</v>
       </c>
@@ -35395,7 +35413,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="743" spans="1:15">
+    <row r="743" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
         <v>30</v>
       </c>
@@ -35442,7 +35460,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="744" spans="1:15">
+    <row r="744" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
         <v>31</v>
       </c>
@@ -35489,7 +35507,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="745" spans="1:15">
+    <row r="745" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
         <v>32</v>
       </c>
@@ -35536,7 +35554,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="746" spans="1:15">
+    <row r="746" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
         <v>33</v>
       </c>
@@ -35583,7 +35601,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="747" spans="1:15">
+    <row r="747" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
         <v>34</v>
       </c>
@@ -35630,7 +35648,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="748" spans="1:15">
+    <row r="748" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
         <v>35</v>
       </c>
@@ -35677,7 +35695,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="749" spans="1:15">
+    <row r="749" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
         <v>36</v>
       </c>
@@ -35724,7 +35742,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="750" spans="1:15">
+    <row r="750" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
         <v>37</v>
       </c>
@@ -35771,7 +35789,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="751" spans="1:15">
+    <row r="751" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
         <v>38</v>
       </c>
@@ -35818,7 +35836,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="752" spans="1:15">
+    <row r="752" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
         <v>39</v>
       </c>
@@ -35865,7 +35883,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="753" spans="1:15">
+    <row r="753" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
         <v>40</v>
       </c>
@@ -35912,7 +35930,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="754" spans="1:15">
+    <row r="754" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
         <v>41</v>
       </c>
@@ -35959,7 +35977,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="755" spans="1:15">
+    <row r="755" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
         <v>42</v>
       </c>
@@ -36006,7 +36024,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="756" spans="1:15">
+    <row r="756" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
         <v>43</v>
       </c>
@@ -36053,7 +36071,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="757" spans="1:15">
+    <row r="757" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
         <v>44</v>
       </c>
@@ -36100,7 +36118,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="758" spans="1:15">
+    <row r="758" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
         <v>45</v>
       </c>
@@ -36147,7 +36165,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="759" spans="1:15">
+    <row r="759" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
         <v>46</v>
       </c>
@@ -36194,7 +36212,7 @@
         <v>2023</v>
       </c>
     </row>
-    <row r="760" spans="1:15">
+    <row r="760" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
         <v>47</v>
       </c>
